--- a/data/Excel/1.4.xlsx
+++ b/data/Excel/1.4.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4288206E-F8A0-42B6-909F-2CB7B5C994C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA8255D-0D40-4BC1-9DD8-CEB75199C770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="430" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1.0" sheetId="3" r:id="rId1"/>
+    <sheet name="1.0" sheetId="5" r:id="rId1"/>
     <sheet name="1.4" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>Сведения об обособленном подразделении</t>
   </si>
@@ -183,16 +183,10 @@
     <t>Дата окончания предыдущего отчетного периода</t>
   </si>
   <si>
-    <t>"__"_____ 20__г.</t>
-  </si>
-  <si>
     <t>Дата окончания настящего отчетного периода</t>
   </si>
   <si>
     <t>Номер корректировки</t>
-  </si>
-  <si>
-    <t>_____</t>
   </si>
   <si>
     <t>№ п/п</t>
@@ -301,12 +295,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -372,7 +374,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -749,307 +751,300 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{B5BE5C71-2102-4ADA-89D1-EA43F7263FF4}"/>
+    <cellStyle name="Обычный 2 2" xfId="3" xr:uid="{D40E5091-E987-4CCC-934E-62F944A2E865}"/>
     <cellStyle name="Обычный 3" xfId="2" xr:uid="{0B8DD020-A20A-4037-8954-37E1A1464764}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1327,977 +1322,914 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF100B7D-2C73-4734-9D1C-BC94BC8D1420}">
-  <dimension ref="A1:I34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121E381E-32D1-4776-9946-8B919B6D4DD2}">
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.15625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.68359375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.68359375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.15625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.15625" style="1"/>
+    <col min="1" max="1" width="16.68359375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.89453125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10.47265625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.83984375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="40.3125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="37.47265625" style="18" customWidth="1"/>
+    <col min="7" max="9" width="10.578125" style="18" customWidth="1"/>
+    <col min="10" max="16384" width="9.15625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="D5" s="20" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+    </row>
+    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="18" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="9" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="60" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="60" t="s">
-        <v>28</v>
       </c>
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
       <c r="D10" s="61"/>
       <c r="E10" s="62"/>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="63" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="52" t="s">
+    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="63"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="63" t="s">
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="63"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="63"/>
+    </row>
+    <row r="14" spans="1:9" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="64"/>
+    </row>
+    <row r="15" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="65" t="s">
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B16" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="65"/>
-      <c r="B14" s="68" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="45"/>
+      <c r="B17" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="65"/>
-      <c r="B15" s="68" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="45"/>
+      <c r="B18" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="65"/>
-      <c r="B16" s="68" t="s">
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="45"/>
+      <c r="B19" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="65"/>
-      <c r="B17" s="68" t="s">
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="45"/>
+      <c r="B20" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="65"/>
-      <c r="B18" s="68" t="s">
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="45"/>
+      <c r="B21" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="65"/>
-      <c r="B19" s="69" t="s">
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="45"/>
+      <c r="B22" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="65"/>
-      <c r="B20" s="69" t="s">
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="45"/>
+      <c r="B23" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="66"/>
-      <c r="B21" s="73" t="s">
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="25"/>
+    </row>
+    <row r="24" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="56"/>
+      <c r="B24" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="74" t="s">
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="26"/>
+    </row>
+    <row r="25" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B25" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="65"/>
-      <c r="B23" s="68" t="s">
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="27"/>
+    </row>
+    <row r="26" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="45"/>
+      <c r="B26" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="65"/>
-      <c r="B24" s="68" t="s">
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="45"/>
+      <c r="B27" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="65"/>
-      <c r="B25" s="68" t="s">
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="45"/>
+      <c r="B28" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="65"/>
-      <c r="B26" s="68" t="s">
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="45"/>
+      <c r="B29" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" ht="53.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="65"/>
-      <c r="B27" s="69" t="s">
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="45"/>
+      <c r="B30" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="65"/>
-      <c r="B28" s="69" t="s">
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="45"/>
+      <c r="B31" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:9" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="75"/>
-      <c r="B29" s="73" t="s">
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="46"/>
+      <c r="B32" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="70" t="s">
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="29"/>
+    </row>
+    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G33" s="30"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="72"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="42"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="31"/>
+      <c r="B35" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C35" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D35" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E35" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F35" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G35" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H35" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I35" s="32" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="2" customFormat="1" ht="46.2" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="8" t="s">
+    <row r="36" spans="1:9" s="36" customFormat="1" ht="46.2" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" s="2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="5" t="s">
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+    </row>
+    <row r="37" spans="1:9" s="36" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A31:I31"/>
+  <mergeCells count="28">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="A22:A29"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
+    <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCD76C8-D1AB-403E-BE3C-5248C8BBDC45}">
-  <dimension ref="A1:V25"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="B9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="25"/>
-    <col min="2" max="2" width="11.15625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="11" style="25" customWidth="1"/>
-    <col min="4" max="4" width="9.15625" style="25"/>
-    <col min="5" max="5" width="10.15625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="11.15625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="9.15625" style="25"/>
-    <col min="8" max="8" width="9.578125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="7.26171875" style="25" customWidth="1"/>
-    <col min="10" max="10" width="9.68359375" style="25" customWidth="1"/>
-    <col min="11" max="11" width="9.15625" style="25"/>
-    <col min="12" max="12" width="6" style="25" customWidth="1"/>
-    <col min="13" max="13" width="17.26171875" style="25" customWidth="1"/>
-    <col min="14" max="14" width="16.578125" style="25" customWidth="1"/>
-    <col min="15" max="17" width="9.15625" style="25"/>
-    <col min="18" max="18" width="14.83984375" style="25" customWidth="1"/>
-    <col min="19" max="16384" width="9.15625" style="25"/>
+    <col min="1" max="22" width="10.578125" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9.15625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="V1" s="26" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="V1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="V2" s="26"/>
-    </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="96" t="s">
+    <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-    </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-    </row>
-    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="97" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="27" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+    </row>
+    <row r="4" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-    </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="97" t="s">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="97" t="s">
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="29" t="s">
+      <c r="B7" s="74" t="s">
         <v>42</v>
       </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="75"/>
+      <c r="O7" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="75"/>
+      <c r="T7" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="U7" s="78"/>
+      <c r="V7" s="75"/>
     </row>
     <row r="8" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="86"/>
-      <c r="O9" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="85" t="s">
+      <c r="A8" s="80"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="77"/>
+    </row>
+    <row r="9" spans="1:22" ht="320.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="80"/>
+      <c r="B9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="S9" s="86"/>
-      <c r="T9" s="85" t="s">
+      <c r="C9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="U9" s="89"/>
-      <c r="V9" s="86"/>
+      <c r="D9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="99"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="83"/>
-      <c r="V10" s="88"/>
-    </row>
-    <row r="11" spans="1:22" ht="203.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="99"/>
-      <c r="B11" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="O11" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q11" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="R11" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="S11" s="31" t="s">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3</v>
+      </c>
+      <c r="D10" s="9">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9">
+        <v>5</v>
+      </c>
+      <c r="F10" s="9">
+        <v>6</v>
+      </c>
+      <c r="G10" s="9">
+        <v>7</v>
+      </c>
+      <c r="H10" s="9">
+        <v>8</v>
+      </c>
+      <c r="I10" s="9">
+        <v>9</v>
+      </c>
+      <c r="J10" s="9">
+        <v>10</v>
+      </c>
+      <c r="K10" s="9">
+        <v>11</v>
+      </c>
+      <c r="L10" s="9">
+        <v>12</v>
+      </c>
+      <c r="M10" s="9">
+        <v>13</v>
+      </c>
+      <c r="N10" s="9">
+        <v>14</v>
+      </c>
+      <c r="O10" s="9">
+        <v>15</v>
+      </c>
+      <c r="P10" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>17</v>
+      </c>
+      <c r="R10" s="9">
+        <v>18</v>
+      </c>
+      <c r="S10" s="9">
+        <v>19</v>
+      </c>
+      <c r="T10" s="9">
+        <v>20</v>
+      </c>
+      <c r="U10" s="9">
+        <v>21</v>
+      </c>
+      <c r="V10" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+    </row>
+    <row r="13" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="T11" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="U11" s="31" t="s">
+    </row>
+    <row r="14" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="V11" s="31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="32">
-        <v>1</v>
-      </c>
-      <c r="B12" s="33">
-        <v>2</v>
-      </c>
-      <c r="C12" s="33">
-        <v>3</v>
-      </c>
-      <c r="D12" s="33">
-        <v>4</v>
-      </c>
-      <c r="E12" s="33">
-        <v>5</v>
-      </c>
-      <c r="F12" s="33">
-        <v>6</v>
-      </c>
-      <c r="G12" s="33">
-        <v>7</v>
-      </c>
-      <c r="H12" s="33">
-        <v>8</v>
-      </c>
-      <c r="I12" s="33">
-        <v>9</v>
-      </c>
-      <c r="J12" s="33">
-        <v>10</v>
-      </c>
-      <c r="K12" s="33">
-        <v>11</v>
-      </c>
-      <c r="L12" s="33">
-        <v>12</v>
-      </c>
-      <c r="M12" s="33">
-        <v>13</v>
-      </c>
-      <c r="N12" s="33">
-        <v>14</v>
-      </c>
-      <c r="O12" s="33">
-        <v>15</v>
-      </c>
-      <c r="P12" s="33">
-        <v>16</v>
-      </c>
-      <c r="Q12" s="33">
-        <v>17</v>
-      </c>
-      <c r="R12" s="33">
-        <v>18</v>
-      </c>
-      <c r="S12" s="33">
-        <v>19</v>
-      </c>
-      <c r="T12" s="33">
-        <v>20</v>
-      </c>
-      <c r="U12" s="33">
-        <v>21</v>
-      </c>
-      <c r="V12" s="33">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="37"/>
-    </row>
-    <row r="14" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="42"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="25" t="s">
+      <c r="B14" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="90" t="s">
+      <c r="C14" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="36" t="s">
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="39"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="93"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="80"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-    </row>
-    <row r="24" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="46" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-    </row>
-    <row r="25" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="49" t="s">
+      <c r="G19" s="73"/>
+      <c r="I19" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="84" t="s">
+      <c r="J19" s="14"/>
+      <c r="K19" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="84"/>
-      <c r="H25" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="50"/>
-      <c r="J25" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="K25" s="84"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A3:V3"/>
-    <mergeCell ref="A4:V4"/>
+  <mergeCells count="21">
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="A2:V2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="R9:S10"/>
-    <mergeCell ref="T9:V10"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:L10"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="O9:Q10"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="T7:V8"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:L8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Excel/1.4.xlsx
+++ b/data/Excel/1.4.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\RAO_Project\data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkl\source\repos\repo\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA8255D-0D40-4BC1-9DD8-CEB75199C770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="430" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="435" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="5" r:id="rId1"/>
@@ -294,7 +293,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,7 +373,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -631,19 +630,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -771,6 +757,69 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -782,7 +831,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -813,7 +862,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -825,7 +874,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -841,30 +890,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -890,8 +921,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -906,9 +994,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -920,132 +1005,129 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{B5BE5C71-2102-4ADA-89D1-EA43F7263FF4}"/>
-    <cellStyle name="Обычный 2 2" xfId="3" xr:uid="{D40E5091-E987-4CCC-934E-62F944A2E865}"/>
-    <cellStyle name="Обычный 3" xfId="2" xr:uid="{0B8DD020-A20A-4037-8954-37E1A1464764}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2 2" xfId="3"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1322,70 +1404,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121E381E-32D1-4776-9946-8B919B6D4DD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.89453125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="10.47265625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.83984375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="40.3125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="37.47265625" style="18" customWidth="1"/>
-    <col min="7" max="9" width="10.578125" style="18" customWidth="1"/>
-    <col min="10" max="16384" width="9.15625" style="18"/>
+    <col min="1" max="1" width="16.7109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="18" customWidth="1"/>
+    <col min="7" max="9" width="10.5703125" style="18" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="59" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-    </row>
-    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="59" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-    </row>
-    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -1396,7 +1478,7 @@
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="21"/>
       <c r="E6" s="21" t="s">
         <v>31</v>
@@ -1406,327 +1488,377 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="60" t="s">
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="65" t="s">
+    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="63"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="65" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="39"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="63"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="63"/>
-    </row>
-    <row r="14" spans="1:9" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="64"/>
-    </row>
-    <row r="15" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="54" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="39"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="39"/>
+    </row>
+    <row r="14" spans="1:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="24"/>
-    </row>
-    <row r="16" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="45" t="s">
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="82"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="45"/>
-      <c r="B17" s="49" t="s">
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="83"/>
+    </row>
+    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="48"/>
+      <c r="B17" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="45"/>
-      <c r="B18" s="49" t="s">
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="83"/>
+    </row>
+    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="45"/>
-      <c r="B19" s="49" t="s">
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="83"/>
+    </row>
+    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="45"/>
-      <c r="B20" s="49" t="s">
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="83"/>
+    </row>
+    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="48"/>
+      <c r="B20" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="45"/>
-      <c r="B21" s="49" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="83"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="48"/>
+      <c r="B21" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="45"/>
-      <c r="B22" s="51" t="s">
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="83"/>
+    </row>
+    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="48"/>
+      <c r="B22" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="25"/>
-    </row>
-    <row r="23" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="45"/>
-      <c r="B23" s="51" t="s">
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="83"/>
+    </row>
+    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="48"/>
+      <c r="B23" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="25"/>
-    </row>
-    <row r="24" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="56"/>
-      <c r="B24" s="43" t="s">
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="83"/>
+    </row>
+    <row r="24" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="49"/>
+      <c r="B24" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="26"/>
-    </row>
-    <row r="25" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="44" t="s">
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="85"/>
+    </row>
+    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="27"/>
-    </row>
-    <row r="26" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="45"/>
-      <c r="B26" s="49" t="s">
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="99"/>
+    </row>
+    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="48"/>
+      <c r="B26" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="28"/>
-    </row>
-    <row r="27" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="45"/>
-      <c r="B27" s="49" t="s">
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="84"/>
+    </row>
+    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
+      <c r="B27" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="28"/>
-    </row>
-    <row r="28" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="45"/>
-      <c r="B28" s="49" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="84"/>
+    </row>
+    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
+      <c r="B28" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="45"/>
-      <c r="B29" s="49" t="s">
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="84"/>
+    </row>
+    <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="B29" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="28"/>
-    </row>
-    <row r="30" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="45"/>
-      <c r="B30" s="51" t="s">
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="84"/>
+    </row>
+    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="48"/>
+      <c r="B30" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="25"/>
-    </row>
-    <row r="31" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="45"/>
-      <c r="B31" s="51" t="s">
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="83"/>
+    </row>
+    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="48"/>
+      <c r="B31" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="25"/>
-    </row>
-    <row r="32" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="46"/>
-      <c r="B32" s="53" t="s">
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="83"/>
+    </row>
+    <row r="32" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="58"/>
+      <c r="B32" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="29"/>
-    </row>
-    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G33" s="30"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="40" t="s">
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="85"/>
+    </row>
+    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="42"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32" t="s">
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="25"/>
+      <c r="B35" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="32" t="s">
+      <c r="H35" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="32" t="s">
+      <c r="I35" s="26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="36" customFormat="1" ht="46.2" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="33" t="s">
+    <row r="36" spans="1:9" s="30" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-    </row>
-    <row r="37" spans="1:9" s="36" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="37" t="s">
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+    </row>
+    <row r="37" spans="1:9" s="30" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
+  <mergeCells count="46">
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:A32"/>
@@ -1738,6 +1870,28 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1745,23 +1899,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCD76C8-D1AB-403E-BE3C-5248C8BBDC45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="B9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="22" width="10.578125" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.15625" style="2"/>
+    <col min="1" max="22" width="10.5703125" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1771,43 +1925,43 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="84" t="s">
+    <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-    </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="85" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1823,17 +1977,17 @@
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="85" t="s">
+    <row r="4" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1849,19 +2003,19 @@
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
     </row>
-    <row r="5" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="85" t="s">
+    <row r="5" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-    </row>
-    <row r="6" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+    </row>
+    <row r="6" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1870,70 +2024,70 @@
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="79" t="s">
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="74" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="74" t="s">
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="75"/>
-      <c r="O7" s="74" t="s">
+      <c r="N7" s="73"/>
+      <c r="O7" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="74" t="s">
+      <c r="P7" s="76"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="S7" s="75"/>
-      <c r="T7" s="74" t="s">
+      <c r="S7" s="73"/>
+      <c r="T7" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="U7" s="78"/>
-      <c r="V7" s="75"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="80"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="77"/>
-    </row>
-    <row r="9" spans="1:22" ht="320.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="80"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="73"/>
+    </row>
+    <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="79"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="75"/>
+    </row>
+    <row r="9" spans="1:22" ht="320.10000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="79"/>
       <c r="B9" s="7" t="s">
         <v>48</v>
       </c>
@@ -1998,7 +2152,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -2066,12 +2220,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+    <row r="11" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -2083,57 +2237,57 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-    </row>
-    <row r="13" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+    </row>
+    <row r="13" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="83"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="66"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:22" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="39"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="83"/>
+    <row r="15" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="66"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -2149,7 +2303,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -2165,24 +2319,24 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="71" t="s">
+    <row r="18" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
       <c r="D18" s="16"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
       <c r="I18" s="16"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="13"/>
@@ -2190,23 +2344,28 @@
         <v>71</v>
       </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="73" t="s">
+      <c r="F19" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="73"/>
+      <c r="G19" s="81"/>
       <c r="I19" s="17" t="s">
         <v>73</v>
       </c>
       <c r="J19" s="14"/>
-      <c r="K19" s="73" t="s">
+      <c r="K19" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="L19" s="73"/>
+      <c r="L19" s="81"/>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="A2:V2"/>
@@ -2223,11 +2382,6 @@
     <mergeCell ref="D7:L8"/>
     <mergeCell ref="M7:N8"/>
     <mergeCell ref="O7:Q8"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" fitToHeight="1000" orientation="landscape" r:id="rId1"/>

--- a/data/Excel/1.4.xlsx
+++ b/data/Excel/1.4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkl\source\repos\repo\RAO_Project\data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C46B688-3B93-4A29-A05A-52E3429C6C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="435" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="5" r:id="rId1"/>
@@ -182,9 +183,6 @@
     <t>Дата окончания предыдущего отчетного периода</t>
   </si>
   <si>
-    <t>Дата окончания настящего отчетного периода</t>
-  </si>
-  <si>
     <t>Номер корректировки</t>
   </si>
   <si>
@@ -288,12 +286,15 @@
   </si>
   <si>
     <t>(Электронная почта (при наличии))</t>
+  </si>
+  <si>
+    <t>Дата окончания настоящего отчетного периода</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -831,7 +832,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -877,9 +878,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -924,6 +922,114 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -960,59 +1066,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1053,81 +1114,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 2 2" xfId="3"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1404,461 +1402,465 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="F25" sqref="F25:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" style="18" customWidth="1"/>
-    <col min="7" max="9" width="10.5703125" style="18" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="16.7265625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="40.26953125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="37.453125" style="17" customWidth="1"/>
+    <col min="7" max="9" width="10.54296875" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I1" s="19" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I1" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-    </row>
-    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+    </row>
+    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-    </row>
-    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="21"/>
-      <c r="E6" s="21" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+    </row>
+    <row r="5" spans="1:9" ht="2.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23" t="s">
+      <c r="F6" s="21"/>
+      <c r="G6" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="39"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="74"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="39"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="39"/>
-    </row>
-    <row r="14" spans="1:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="39"/>
-    </row>
-    <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="74"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="74"/>
+    </row>
+    <row r="14" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="78"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="74"/>
+    </row>
+    <row r="15" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="82"/>
-    </row>
-    <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="83"/>
-    </row>
-    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="48"/>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="83"/>
-    </row>
-    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="48"/>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="83"/>
-    </row>
-    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+    </row>
+    <row r="19" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="48"/>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="83"/>
-    </row>
-    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="48"/>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="83"/>
-    </row>
-    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="48"/>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="83"/>
-    </row>
-    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="48"/>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="83"/>
-    </row>
-    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="48"/>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="83"/>
-    </row>
-    <row r="24" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49"/>
-      <c r="B24" s="56" t="s">
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="66"/>
+      <c r="B24" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="85"/>
-    </row>
-    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
+    </row>
+    <row r="25" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="99"/>
-    </row>
-    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
+    </row>
+    <row r="26" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48"/>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="84"/>
-    </row>
-    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="62"/>
+    </row>
+    <row r="27" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="48"/>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="84"/>
-    </row>
-    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="62"/>
+    </row>
+    <row r="28" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="48"/>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="84"/>
-    </row>
-    <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="62"/>
+    </row>
+    <row r="29" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="48"/>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="84"/>
-    </row>
-    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="62"/>
+    </row>
+    <row r="30" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="48"/>
-      <c r="B30" s="52" t="s">
+      <c r="B30" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="83"/>
-    </row>
-    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="35"/>
+    </row>
+    <row r="31" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="48"/>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="83"/>
-    </row>
-    <row r="32" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="58"/>
-      <c r="B32" s="63" t="s">
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="35"/>
+    </row>
+    <row r="32" spans="1:9" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="49"/>
+      <c r="B32" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="85"/>
-    </row>
-    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G33" s="24"/>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="53" t="s">
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="38"/>
+    </row>
+    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G33" s="23"/>
+    </row>
+    <row r="34" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="55"/>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
+    </row>
+    <row r="35" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="I35" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="30" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
+    <row r="36" spans="1:9" s="29" customFormat="1" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-    </row>
-    <row r="37" spans="1:9" s="30" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31" t="s">
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+    </row>
+    <row r="37" spans="1:9" s="29" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:A32"/>
@@ -1875,23 +1877,19 @@
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1899,23 +1897,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="B9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="22" width="10.5703125" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="22" width="10.54296875" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1925,43 +1923,43 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+    <row r="2" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-    </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1977,17 +1975,17 @@
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
+    <row r="4" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -2003,19 +2001,19 @@
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-    </row>
-    <row r="6" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+    </row>
+    <row r="6" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -2024,135 +2022,135 @@
       <c r="F6" s="6"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="C7" s="93"/>
+      <c r="D7" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="72" t="s">
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="72" t="s">
+      <c r="N7" s="93"/>
+      <c r="O7" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="73"/>
-      <c r="O7" s="72" t="s">
+      <c r="P7" s="96"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="72" t="s">
+      <c r="S7" s="93"/>
+      <c r="T7" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="S7" s="73"/>
-      <c r="T7" s="72" t="s">
+      <c r="U7" s="96"/>
+      <c r="V7" s="93"/>
+    </row>
+    <row r="8" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="98"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="95"/>
+    </row>
+    <row r="9" spans="1:22" ht="320.14999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="98"/>
+      <c r="B9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="U7" s="76"/>
-      <c r="V7" s="73"/>
-    </row>
-    <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="74"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="75"/>
-    </row>
-    <row r="9" spans="1:22" ht="320.10000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="79"/>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="O9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Q9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="R9" s="7" t="s">
+      <c r="S9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="T9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="T9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="V9" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -2220,12 +2218,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+    <row r="11" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -2237,57 +2235,57 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-    </row>
-    <row r="13" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+    </row>
+    <row r="13" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="32" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="B14" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="66"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="86"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="66"/>
+    <row r="15" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="32"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="86"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -2303,7 +2301,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -2319,53 +2317,48 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
+    <row r="18" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="16"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
       <c r="I18" s="16"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="81" t="s">
+      <c r="G19" s="83"/>
+      <c r="I19" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="81"/>
-      <c r="I19" s="17" t="s">
+      <c r="J19" s="14"/>
+      <c r="K19" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" s="81"/>
+      <c r="L19" s="83"/>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="A2:V2"/>
@@ -2382,6 +2375,11 @@
     <mergeCell ref="D7:L8"/>
     <mergeCell ref="M7:N8"/>
     <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" fitToHeight="1000" orientation="landscape" r:id="rId1"/>
